--- a/biology/Botanique/La_Petite_Marchande_de_roses/La_Petite_Marchande_de_roses.xlsx
+++ b/biology/Botanique/La_Petite_Marchande_de_roses/La_Petite_Marchande_de_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite Marchande de roses, dont le titre original est en espagnol La vendedora de rosas, est un long métrage colombien réalisé par Víctor Gaviria en 1998.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film retrace les événements autour des fêtes de Noël vécus par Monica, fille de treize ans qui vend des roses dans la ville de Medellin. Après la mort de sa mère, Monica fuit à la rue et se jette dans un monde criminel de drogue, d'alcool et de prostitution, gagnant sa vie comme marchande de roses avec ses amies. La veille de Noël, un ivrogne lui offre une montre. Reconnaissante et y soupçonnant quelque don du ciel, elle l'utilise tous les jours -- ignorant, cependant, que le colifichet tramera les circonstances qui finiront par mettre fin à sa vie.
 </t>
@@ -542,18 +556,20 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre original : La vendedora de rosas[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre original : La vendedora de rosas
 Réalisation : Víctor Gaviria
 Musique : Luis Fernando Franco
 Société de production : Sylvia Vargas-Gomez
 Pays d'origine :  Colombie
-Format : Couleur - 35 mm[1]
-Durée : 115 minutes[1]
+Format : Couleur - 35 mm
+Durée : 115 minutes
 Genre : Drame
 Dates de sortie :
- Colombie : sortie nationale le 21 août 1998[1]</t>
+ Colombie : sortie nationale le 21 août 1998</t>
         </is>
       </c>
     </row>
@@ -581,9 +597,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les principaux acteurs ayant joué dans La Petite Marchande de roses sont[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les principaux acteurs ayant joué dans La Petite Marchande de roses sont :
 Leidy Tabares (es) : Mónica
 Marta Correa : Judy
 Mileider Gil : Andrea
@@ -618,9 +636,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Petite Marchande de roses, qui est le deuxième long métrage de Víctor Gaviria, s'appuie sur le conte écrit par le Danois Hans Christian Andersen, La Petite Fille aux allumettes[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Petite Marchande de roses, qui est le deuxième long métrage de Víctor Gaviria, s'appuie sur le conte écrit par le Danois Hans Christian Andersen, La Petite Fille aux allumettes.
 </t>
         </is>
       </c>
@@ -649,9 +669,11 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du Festival de Cannes en 1998, La Petite Marchande de roses reçoit un accueil mitigé de la part de la critique internationale. Ainsi, si Le Film français donne une appréciation positive, La Croix, L'Humanité, L'Express et Le Nouvel Observateur sont plus réservés[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du Festival de Cannes en 1998, La Petite Marchande de roses reçoit un accueil mitigé de la part de la critique internationale. Ainsi, si Le Film français donne une appréciation positive, La Croix, L'Humanité, L'Express et Le Nouvel Observateur sont plus réservés.
 </t>
         </is>
       </c>
@@ -682,15 +704,54 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Prix
-Le film a reçu un total de quatorze prix internationaux.
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le film a reçu un total de quatorze prix internationaux.
 Festival international du nouveau cinéma latino-américain de La Havane
 Festival international de Bratislava (1999)
 Festival Hispano de Miami (1999)
 Festival du film de Bogota (1998)
-Festival de Viña del Mar (1998)
-Nominations
-En 1998, La Petite Marchande de roses est en compétition officielle pour la Palme d'or de la 51e édition du Festival de Cannes[3].
+Festival de Viña del Mar (1998)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Petite_Marchande_de_roses</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Marchande_de_roses</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Prix et nominations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1998, La Petite Marchande de roses est en compétition officielle pour la Palme d'or de la 51e édition du Festival de Cannes.
 Nomination lors du prix Ariel en 2000.</t>
         </is>
       </c>
